--- a/translation/your_language.xlsx
+++ b/translation/your_language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279FE0D5-EF6E-4764-A71C-357A676F9E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F8B152-38E5-4C06-9CB8-DB24B8CAAF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="936">
   <si>
     <t>g_lang.ask_if_reinit.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3242,6 +3242,38 @@
   <si>
     <t>Common to all menus</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.expire_time.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.expire_time.2</t>
+  </si>
+  <si>
+    <t>g_lang.item_frame.expire_time.3</t>
+  </si>
+  <si>
+    <t>g_lang.item_frame.expire_time.4</t>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display_images\zh_cn\g_lang.item_frame.expire_time.png</t>
   </si>
 </sst>
 </file>
@@ -3657,10 +3689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC84E5-621A-4D4C-80FE-0993A9D0C53C}">
-  <dimension ref="A1:J581"/>
+  <dimension ref="A1:J586"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11298,6 +11330,58 @@
         <v>758</v>
       </c>
       <c r="I581" s="2"/>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>582</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="E583" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="G583" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>583</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="G584" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>584</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G585" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>585</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="G586" s="2" t="s">
+        <v>934</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J581">
@@ -11511,6 +11595,7 @@
     <hyperlink ref="E185" r:id="rId204" xr:uid="{0F2DA7BA-38A2-42E1-92C1-BC707B31FBB4}"/>
     <hyperlink ref="E188" r:id="rId205" xr:uid="{C9C342B2-FA0D-4DCD-9292-0EE0C08868CB}"/>
     <hyperlink ref="E205" r:id="rId206" xr:uid="{18AE095E-B08B-4420-B2F6-4A7014749E11}"/>
+    <hyperlink ref="E583" r:id="rId207" xr:uid="{7C458A6C-5D84-4874-9A89-C7DCB9D01146}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
